--- a/GeneratedReports/DynamicTableReport.xlsx
+++ b/GeneratedReports/DynamicTableReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -53,24 +53,81 @@
     <t/>
   </si>
   <si>
+    <t>03-07-2024 09:34:40</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Cyclindrical Component</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>30.89</t>
+  </si>
+  <si>
+    <t>30.83</t>
+  </si>
+  <si>
+    <t>Rejected at Renishaw, Versa is not measured</t>
+  </si>
+  <si>
+    <t>02-07-2024 17:39:49</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>50.83</t>
+  </si>
+  <si>
+    <t>02-07-2024 14:36:03</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>Both are not measured</t>
+  </si>
+  <si>
+    <t>02-07-2024 14:28:41</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>02-07-2024 12:40:53</t>
+  </si>
+  <si>
+    <t>6790</t>
+  </si>
+  <si>
+    <t>02-07-2024 12:40:12</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>01-07-2024 18:12:15</t>
+  </si>
+  <si>
+    <t>50021</t>
+  </si>
+  <si>
     <t>01-07-2024 18:05:30</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Cyclindrical Component</t>
-  </si>
-  <si>
     <t>1002</t>
   </si>
   <si>
     <t>20.86</t>
   </si>
   <si>
-    <t>20.85</t>
-  </si>
-  <si>
     <t>15.07</t>
   </si>
   <si>
@@ -80,13 +137,103 @@
     <t>Rejected at Versa</t>
   </si>
   <si>
+    <t>01-07-2024 18:02:53</t>
+  </si>
+  <si>
+    <t>5006</t>
+  </si>
+  <si>
+    <t>30.844</t>
+  </si>
+  <si>
+    <t>20.84</t>
+  </si>
+  <si>
+    <t>Versa is not measured</t>
+  </si>
+  <si>
+    <t>01-07-2024 17:55:32</t>
+  </si>
+  <si>
+    <t>5004</t>
+  </si>
+  <si>
+    <t>30.832</t>
+  </si>
+  <si>
+    <t>30.855</t>
+  </si>
+  <si>
+    <t>19.85</t>
+  </si>
+  <si>
+    <t>01-07-2024 17:45:56</t>
+  </si>
+  <si>
+    <t>5003</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Rejected at Renishaw</t>
+  </si>
+  <si>
+    <t>01-07-2024 17:44:19</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>15.06</t>
+  </si>
+  <si>
+    <t>01-07-2024 17:38:38</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>01-07-2024 16:29:55</t>
+  </si>
+  <si>
+    <t>555666</t>
+  </si>
+  <si>
+    <t>01-07-2024 16:29:26</t>
+  </si>
+  <si>
+    <t>33333</t>
+  </si>
+  <si>
+    <t>01-07-2024 16:18:37</t>
+  </si>
+  <si>
+    <t>4567</t>
+  </si>
+  <si>
+    <t>01-07-2024 16:06:57</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
     <t>01-07-2024 16:04:22</t>
   </si>
   <si>
     <t>1009</t>
   </si>
   <si>
-    <t>15.06</t>
+    <t>01-07-2024 16:03:33</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>15.05</t>
   </si>
   <si>
     <t>01-07-2024 15:40:23</t>
@@ -95,33 +242,15 @@
     <t>1007</t>
   </si>
   <si>
-    <t>30.832</t>
-  </si>
-  <si>
     <t>154</t>
   </si>
   <si>
-    <t>Versa is not measured</t>
-  </si>
-  <si>
     <t>01-07-2024 15:40:00</t>
   </si>
   <si>
     <t>1008</t>
   </si>
   <si>
-    <t>30.844</t>
-  </si>
-  <si>
-    <t>20.84</t>
-  </si>
-  <si>
-    <t>19.992</t>
-  </si>
-  <si>
-    <t>Rejected at Renishaw, Versa is not measured</t>
-  </si>
-  <si>
     <t>01-07-2024 15:39:28</t>
   </si>
   <si>
@@ -140,9 +269,6 @@
     <t>1005</t>
   </si>
   <si>
-    <t>Both are not measured</t>
-  </si>
-  <si>
     <t>01-07-2024 14:54:51</t>
   </si>
   <si>
@@ -156,6 +282,78 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>01-07-2024 12:22:14</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>01-07-2024 12:21:44</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>19.88</t>
+  </si>
+  <si>
+    <t>01-07-2024 10:18:59</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>30.86</t>
+  </si>
+  <si>
+    <t>01-07-2024 10:18:57</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>30.88</t>
+  </si>
+  <si>
+    <t>01-07-2024 10:10:46</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>30.853</t>
+  </si>
+  <si>
+    <t>19.86</t>
+  </si>
+  <si>
+    <t>29-06-2024 18:45:31</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>30.848</t>
+  </si>
+  <si>
+    <t>29-06-2024 18:44:49</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>19.87</t>
+  </si>
+  <si>
+    <t>29-06-2024 15:25:16</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>30.852</t>
   </si>
 </sst>
 </file>
@@ -265,7 +463,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -300,10 +498,10 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
@@ -326,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
@@ -351,140 +549,140 @@
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -493,34 +691,34 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>24</v>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -529,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -540,32 +738,32 @@
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -580,87 +778,987 @@
         <v>12</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="1"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -668,8 +1766,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1"/>
     <mergeCell ref="H1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
